--- a/FINAL Cleaned Carbonate Chemistry, water quality and coral measurements.xlsx
+++ b/FINAL Cleaned Carbonate Chemistry, water quality and coral measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessebecklevisohn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7CB2D3-C6AC-CD4E-8D58-A43658E820FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C6636-2073-CF4C-A9CE-EE21DD384F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH control" sheetId="16" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Tissue growth (mm2/day)</t>
   </si>
   <si>
-    <t>% change Surface Area Density</t>
-  </si>
-  <si>
     <t>Buoyant Weight (g)</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Percent change Surface Area Density</t>
   </si>
 </sst>
 </file>
@@ -664,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>11</v>
@@ -2203,13 +2203,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>11</v>
@@ -5225,23 +5225,23 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I41"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -5250,13 +5250,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6417,24 +6417,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BF8D5C-9BDE-4ECA-9270-5B09D81E1D28}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -6443,13 +6443,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -7612,23 +7612,23 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -7637,13 +7637,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
@@ -8769,23 +8769,23 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I41"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -8794,13 +8794,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
@@ -9926,24 +9926,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F87D8-61D0-DF4D-A010-96854C67E199}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -9952,13 +9952,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
@@ -11084,24 +11084,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20815BDD-EA8C-2D46-845A-59FD9781CE26}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -11110,13 +11110,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="6"/>
